--- a/recursos/SISTEMA TARNSPORTE.xlsx
+++ b/recursos/SISTEMA TARNSPORTE.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INGRESO DE DATA" sheetId="1" r:id="rId1"/>
     <sheet name="COMPRAS" sheetId="2" r:id="rId2"/>
     <sheet name="TABLAS" sheetId="3" r:id="rId3"/>
     <sheet name="Usuario" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -811,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +841,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1096,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1136,6 +1143,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2346,4 +2354,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>